--- a/b.xlsx
+++ b/b.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="b.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">b.csv!$A$1:$A$99</definedName>
+  </definedNames>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="9">
   <si>
     <t>Speaker</t>
   </si>
@@ -32,15 +35,46 @@
   <si>
     <t>Speaker2</t>
   </si>
+  <si>
+    <t>Speaker 1</t>
+  </si>
+  <si>
+    <t>Speaker 2</t>
+  </si>
+  <si>
+    <t>"money"</t>
+  </si>
+  <si>
+    <t>no "money</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +97,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,15 +441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,87 +457,195 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIF($B$2:$B$49,1)</f>
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIF($B$2:$B$49,0)</f>
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <f>SUM(E3:F3)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIF($B$50:$B$99,1)</f>
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIF($B$50:$B$99,0)</f>
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <f>SUM(E4:F4)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <f>SUM(E3:E4)</f>
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <f>SUM(F3:F4)</f>
+        <v>86</v>
+      </c>
+      <c r="G5">
+        <f>SUM(E5:F5)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f>COUNTIF($B$2:$B$49,1)</f>
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f>COUNTIF($B$2:$B$49,0)</f>
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <f>SUM(E8:F8)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <f>COUNTIF($B$50:$B$99,1)</f>
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <f>COUNTIF($B$50:$B$99,0)</f>
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <f>SUM(E9:F9)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E8:E9)</f>
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <f>SUM(F8:F9)</f>
+        <v>86</v>
+      </c>
+      <c r="G10">
+        <f>SUM(E10:F10)</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -503,31 +653,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -537,7 +687,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -548,12 +698,12 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -569,7 +719,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -580,12 +730,12 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -601,7 +751,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -612,12 +762,12 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -628,15 +778,15 @@
         <v>2</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -644,12 +794,12 @@
         <v>2</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -665,10 +815,10 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -681,7 +831,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -692,15 +842,15 @@
         <v>2</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -713,7 +863,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -729,10 +879,10 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -745,10 +895,10 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -761,7 +911,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -777,7 +927,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -793,15 +943,15 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -817,7 +967,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -833,7 +983,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -849,7 +999,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -865,7 +1015,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -881,7 +1031,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -897,7 +1047,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -913,10 +1063,10 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -929,10 +1079,10 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -945,10 +1095,10 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -961,7 +1111,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -972,12 +1122,12 @@
         <v>3</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -993,10 +1143,10 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1009,7 +1159,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1025,7 +1175,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1041,7 +1191,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1057,10 +1207,10 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1068,12 +1218,12 @@
         <v>3</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1089,7 +1239,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1105,7 +1255,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1121,7 +1271,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1132,12 +1282,12 @@
         <v>3</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1153,7 +1303,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1169,7 +1319,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1185,7 +1335,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -1200,7 +1350,12 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A99"/>
+  <sortState ref="A2:B99">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
